--- a/Index_of_attribute.xlsx
+++ b/Index_of_attribute.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sphinx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCI_FacialExpression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9959C6-1148-4817-B41F-F5641DCE620E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47949A-5006-4138-82DA-EF42CFF9778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{3D0A4E04-DA2F-4797-A38C-E7D09F0F1E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3D0A4E04-DA2F-4797-A38C-E7D09F0F1E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="organ list" sheetId="2" r:id="rId2"/>
+    <sheet name="point value" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>X_0</t>
   </si>
@@ -643,18 +645,97 @@
   </si>
   <si>
     <t>Z_67</t>
+  </si>
+  <si>
+    <t>organ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h-horrizontal v-vertical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left-v-out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left-v-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">right-v-out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right-v-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start point-end point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -999,16 +1080,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422BEC-2B4F-4C7C-BE02-0FDF469E230A}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>153</v>
       </c>
@@ -1016,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>154</v>
       </c>
@@ -1024,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>155</v>
       </c>
@@ -1032,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>156</v>
       </c>
@@ -1040,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>157</v>
       </c>
@@ -1048,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>158</v>
       </c>
@@ -1056,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>159</v>
       </c>
@@ -1064,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>160</v>
       </c>
@@ -1072,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>161</v>
       </c>
@@ -1080,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>162</v>
       </c>
@@ -1088,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>163</v>
       </c>
@@ -1096,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>164</v>
       </c>
@@ -1104,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>165</v>
       </c>
@@ -1112,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>166</v>
       </c>
@@ -1120,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>167</v>
       </c>
@@ -1128,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>168</v>
       </c>
@@ -1136,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>169</v>
       </c>
@@ -1144,7 +1225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>170</v>
       </c>
@@ -1152,7 +1233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>171</v>
       </c>
@@ -1160,7 +1241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>172</v>
       </c>
@@ -1168,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>173</v>
       </c>
@@ -1176,7 +1257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>174</v>
       </c>
@@ -1184,7 +1265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>175</v>
       </c>
@@ -1192,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>176</v>
       </c>
@@ -1200,7 +1281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>177</v>
       </c>
@@ -1208,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>178</v>
       </c>
@@ -1216,7 +1297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>179</v>
       </c>
@@ -1224,7 +1305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>180</v>
       </c>
@@ -1232,7 +1313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>181</v>
       </c>
@@ -1240,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>182</v>
       </c>
@@ -1248,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>183</v>
       </c>
@@ -1256,7 +1337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>184</v>
       </c>
@@ -1264,7 +1345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>185</v>
       </c>
@@ -1272,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>186</v>
       </c>
@@ -1280,7 +1361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>187</v>
       </c>
@@ -1288,7 +1369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>188</v>
       </c>
@@ -1296,7 +1377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>189</v>
       </c>
@@ -1304,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>190</v>
       </c>
@@ -1312,7 +1393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>191</v>
       </c>
@@ -1320,7 +1401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>192</v>
       </c>
@@ -1328,7 +1409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>193</v>
       </c>
@@ -1336,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>194</v>
       </c>
@@ -1344,7 +1425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>195</v>
       </c>
@@ -1352,7 +1433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>196</v>
       </c>
@@ -1360,7 +1441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>197</v>
       </c>
@@ -1368,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>198</v>
       </c>
@@ -1376,7 +1457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>199</v>
       </c>
@@ -1384,7 +1465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>200</v>
       </c>
@@ -1392,7 +1473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>201</v>
       </c>
@@ -1400,7 +1481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>202</v>
       </c>
@@ -1408,7 +1489,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>203</v>
       </c>
@@ -1416,7 +1497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>204</v>
       </c>
@@ -1424,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>205</v>
       </c>
@@ -1432,7 +1513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -1440,7 +1521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>207</v>
       </c>
@@ -1448,7 +1529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>208</v>
       </c>
@@ -1456,7 +1537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>209</v>
       </c>
@@ -1464,7 +1545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>210</v>
       </c>
@@ -1472,7 +1553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>211</v>
       </c>
@@ -1480,7 +1561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>212</v>
       </c>
@@ -1488,7 +1569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>213</v>
       </c>
@@ -1496,7 +1577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>214</v>
       </c>
@@ -1504,7 +1585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>215</v>
       </c>
@@ -1512,7 +1593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>216</v>
       </c>
@@ -1520,7 +1601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>217</v>
       </c>
@@ -1528,7 +1609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>218</v>
       </c>
@@ -1536,7 +1617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>219</v>
       </c>
@@ -1544,7 +1625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>220</v>
       </c>
@@ -1552,7 +1633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>221</v>
       </c>
@@ -1560,7 +1641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>222</v>
       </c>
@@ -1568,7 +1649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>223</v>
       </c>
@@ -1576,7 +1657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>224</v>
       </c>
@@ -1584,7 +1665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>225</v>
       </c>
@@ -1592,7 +1673,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>226</v>
       </c>
@@ -1600,7 +1681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>227</v>
       </c>
@@ -1608,7 +1689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>228</v>
       </c>
@@ -1616,7 +1697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>229</v>
       </c>
@@ -1624,7 +1705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>230</v>
       </c>
@@ -1632,7 +1713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>231</v>
       </c>
@@ -1640,7 +1721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>232</v>
       </c>
@@ -1648,7 +1729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>233</v>
       </c>
@@ -1656,7 +1737,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>234</v>
       </c>
@@ -1664,7 +1745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>235</v>
       </c>
@@ -1672,7 +1753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>236</v>
       </c>
@@ -1680,7 +1761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>237</v>
       </c>
@@ -1688,7 +1769,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>238</v>
       </c>
@@ -1696,7 +1777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>239</v>
       </c>
@@ -1704,7 +1785,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>240</v>
       </c>
@@ -1712,7 +1793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>241</v>
       </c>
@@ -1720,7 +1801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>242</v>
       </c>
@@ -1728,7 +1809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>243</v>
       </c>
@@ -1736,7 +1817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>244</v>
       </c>
@@ -1744,7 +1825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>245</v>
       </c>
@@ -1752,7 +1833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>246</v>
       </c>
@@ -1760,7 +1841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>247</v>
       </c>
@@ -1768,7 +1849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>248</v>
       </c>
@@ -1776,7 +1857,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>249</v>
       </c>
@@ -1784,7 +1865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>250</v>
       </c>
@@ -1792,7 +1873,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>251</v>
       </c>
@@ -1800,7 +1881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>252</v>
       </c>
@@ -1808,7 +1889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>253</v>
       </c>
@@ -1816,7 +1897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>254</v>
       </c>
@@ -1824,7 +1905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>255</v>
       </c>
@@ -1832,7 +1913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>256</v>
       </c>
@@ -1840,7 +1921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>257</v>
       </c>
@@ -1848,7 +1929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>258</v>
       </c>
@@ -1856,7 +1937,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>259</v>
       </c>
@@ -1864,7 +1945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>260</v>
       </c>
@@ -1872,7 +1953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>261</v>
       </c>
@@ -1880,7 +1961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>262</v>
       </c>
@@ -1888,7 +1969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>263</v>
       </c>
@@ -1896,7 +1977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>264</v>
       </c>
@@ -1904,7 +1985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>265</v>
       </c>
@@ -1912,7 +1993,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>266</v>
       </c>
@@ -1920,7 +2001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>267</v>
       </c>
@@ -1928,7 +2009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>268</v>
       </c>
@@ -1936,7 +2017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>269</v>
       </c>
@@ -1944,7 +2025,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>270</v>
       </c>
@@ -1952,7 +2033,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>271</v>
       </c>
@@ -1960,7 +2041,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>272</v>
       </c>
@@ -1968,7 +2049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>273</v>
       </c>
@@ -1976,7 +2057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>274</v>
       </c>
@@ -1984,7 +2065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>275</v>
       </c>
@@ -1992,7 +2073,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>276</v>
       </c>
@@ -2000,7 +2081,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>277</v>
       </c>
@@ -2008,7 +2089,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>278</v>
       </c>
@@ -2016,7 +2097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>279</v>
       </c>
@@ -2024,7 +2105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>280</v>
       </c>
@@ -2032,7 +2113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>281</v>
       </c>
@@ -2040,7 +2121,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>282</v>
       </c>
@@ -2048,7 +2129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>283</v>
       </c>
@@ -2056,7 +2137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>284</v>
       </c>
@@ -2064,7 +2145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>285</v>
       </c>
@@ -2072,7 +2153,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>286</v>
       </c>
@@ -2080,7 +2161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>287</v>
       </c>
@@ -2088,7 +2169,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>288</v>
       </c>
@@ -2096,7 +2177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>289</v>
       </c>
@@ -2104,7 +2185,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>290</v>
       </c>
@@ -2112,7 +2193,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>291</v>
       </c>
@@ -2120,7 +2201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>292</v>
       </c>
@@ -2128,7 +2209,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>293</v>
       </c>
@@ -2136,7 +2217,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>294</v>
       </c>
@@ -2144,7 +2225,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>295</v>
       </c>
@@ -2152,7 +2233,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>296</v>
       </c>
@@ -2160,7 +2241,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>297</v>
       </c>
@@ -2168,7 +2249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>298</v>
       </c>
@@ -2176,7 +2257,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>299</v>
       </c>
@@ -2184,7 +2265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>300</v>
       </c>
@@ -2192,7 +2273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>301</v>
       </c>
@@ -2200,7 +2281,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>302</v>
       </c>
@@ -2208,7 +2289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>303</v>
       </c>
@@ -2216,7 +2297,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>304</v>
       </c>
@@ -2224,7 +2305,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>305</v>
       </c>
@@ -2232,7 +2313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>306</v>
       </c>
@@ -2240,7 +2321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>307</v>
       </c>
@@ -2248,7 +2329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>308</v>
       </c>
@@ -2256,7 +2337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>309</v>
       </c>
@@ -2264,7 +2345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>310</v>
       </c>
@@ -2272,7 +2353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>311</v>
       </c>
@@ -2280,7 +2361,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>312</v>
       </c>
@@ -2288,7 +2369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>313</v>
       </c>
@@ -2296,7 +2377,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>314</v>
       </c>
@@ -2304,7 +2385,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>315</v>
       </c>
@@ -2312,7 +2393,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>316</v>
       </c>
@@ -2320,7 +2401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>317</v>
       </c>
@@ -2328,7 +2409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>318</v>
       </c>
@@ -2336,7 +2417,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>319</v>
       </c>
@@ -2344,7 +2425,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>320</v>
       </c>
@@ -2352,7 +2433,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>321</v>
       </c>
@@ -2360,7 +2441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>322</v>
       </c>
@@ -2368,7 +2449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>323</v>
       </c>
@@ -2376,7 +2457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>324</v>
       </c>
@@ -2384,7 +2465,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>325</v>
       </c>
@@ -2392,7 +2473,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>326</v>
       </c>
@@ -2400,7 +2481,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>327</v>
       </c>
@@ -2408,7 +2489,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>328</v>
       </c>
@@ -2416,7 +2497,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>329</v>
       </c>
@@ -2424,7 +2505,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>330</v>
       </c>
@@ -2432,7 +2513,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>331</v>
       </c>
@@ -2440,7 +2521,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>332</v>
       </c>
@@ -2448,7 +2529,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>333</v>
       </c>
@@ -2456,7 +2537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>334</v>
       </c>
@@ -2464,7 +2545,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>335</v>
       </c>
@@ -2472,7 +2553,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>336</v>
       </c>
@@ -2480,7 +2561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>337</v>
       </c>
@@ -2488,7 +2569,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>338</v>
       </c>
@@ -2496,7 +2577,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>339</v>
       </c>
@@ -2504,7 +2585,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>340</v>
       </c>
@@ -2512,7 +2593,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>341</v>
       </c>
@@ -2520,7 +2601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>342</v>
       </c>
@@ -2528,7 +2609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>343</v>
       </c>
@@ -2536,7 +2617,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>344</v>
       </c>
@@ -2544,7 +2625,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>345</v>
       </c>
@@ -2552,7 +2633,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>346</v>
       </c>
@@ -2560,7 +2641,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>347</v>
       </c>
@@ -2568,7 +2649,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>348</v>
       </c>
@@ -2576,7 +2657,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>349</v>
       </c>
@@ -2584,7 +2665,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>350</v>
       </c>
@@ -2592,7 +2673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>351</v>
       </c>
@@ -2600,7 +2681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>352</v>
       </c>
@@ -2608,7 +2689,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>353</v>
       </c>
@@ -2616,7 +2697,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>354</v>
       </c>
@@ -2624,7 +2705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>355</v>
       </c>
@@ -2632,7 +2713,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>356</v>
       </c>
@@ -2641,6 +2722,1065 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25B5995-2533-4E7C-81C2-695970C04B3C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="4" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85092853-71AF-4B6E-96E8-DB1B30C870B7}">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1">
+        <v>221</v>
+      </c>
+      <c r="D2" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>154</v>
+      </c>
+      <c r="C3" s="1">
+        <v>222</v>
+      </c>
+      <c r="D3" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1">
+        <v>223</v>
+      </c>
+      <c r="D4" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1">
+        <v>225</v>
+      </c>
+      <c r="D6" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>159</v>
+      </c>
+      <c r="C8" s="1">
+        <v>227</v>
+      </c>
+      <c r="D8" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1">
+        <v>228</v>
+      </c>
+      <c r="D9" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1">
+        <v>229</v>
+      </c>
+      <c r="D10" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>162</v>
+      </c>
+      <c r="C11" s="1">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>163</v>
+      </c>
+      <c r="C12" s="1">
+        <v>231</v>
+      </c>
+      <c r="D12" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>164</v>
+      </c>
+      <c r="C13" s="1">
+        <v>232</v>
+      </c>
+      <c r="D13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>165</v>
+      </c>
+      <c r="C14" s="1">
+        <v>233</v>
+      </c>
+      <c r="D14" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1">
+        <v>234</v>
+      </c>
+      <c r="D15" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>167</v>
+      </c>
+      <c r="C16" s="1">
+        <v>235</v>
+      </c>
+      <c r="D16" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>168</v>
+      </c>
+      <c r="C17" s="1">
+        <v>236</v>
+      </c>
+      <c r="D17" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1">
+        <v>237</v>
+      </c>
+      <c r="D18" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>170</v>
+      </c>
+      <c r="C19" s="1">
+        <v>238</v>
+      </c>
+      <c r="D19" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1">
+        <v>239</v>
+      </c>
+      <c r="D20" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1">
+        <v>240</v>
+      </c>
+      <c r="D21" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>173</v>
+      </c>
+      <c r="C22" s="1">
+        <v>241</v>
+      </c>
+      <c r="D22" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>174</v>
+      </c>
+      <c r="C23" s="1">
+        <v>242</v>
+      </c>
+      <c r="D23" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1">
+        <v>243</v>
+      </c>
+      <c r="D24" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1">
+        <v>244</v>
+      </c>
+      <c r="D25" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>177</v>
+      </c>
+      <c r="C26" s="1">
+        <v>245</v>
+      </c>
+      <c r="D26" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>178</v>
+      </c>
+      <c r="C27" s="1">
+        <v>246</v>
+      </c>
+      <c r="D27" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>179</v>
+      </c>
+      <c r="C28" s="1">
+        <v>247</v>
+      </c>
+      <c r="D28" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>180</v>
+      </c>
+      <c r="C29" s="1">
+        <v>248</v>
+      </c>
+      <c r="D29" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>181</v>
+      </c>
+      <c r="C30" s="1">
+        <v>249</v>
+      </c>
+      <c r="D30" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>182</v>
+      </c>
+      <c r="C31" s="1">
+        <v>250</v>
+      </c>
+      <c r="D31" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>183</v>
+      </c>
+      <c r="C32" s="1">
+        <v>251</v>
+      </c>
+      <c r="D32" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>184</v>
+      </c>
+      <c r="C33" s="1">
+        <v>252</v>
+      </c>
+      <c r="D33" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>185</v>
+      </c>
+      <c r="C34" s="1">
+        <v>253</v>
+      </c>
+      <c r="D34" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>186</v>
+      </c>
+      <c r="C35" s="1">
+        <v>254</v>
+      </c>
+      <c r="D35" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>187</v>
+      </c>
+      <c r="C36" s="1">
+        <v>255</v>
+      </c>
+      <c r="D36" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>188</v>
+      </c>
+      <c r="C37" s="1">
+        <v>256</v>
+      </c>
+      <c r="D37" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>189</v>
+      </c>
+      <c r="C38" s="1">
+        <v>257</v>
+      </c>
+      <c r="D38" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1">
+        <v>258</v>
+      </c>
+      <c r="D39" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>191</v>
+      </c>
+      <c r="C40" s="1">
+        <v>259</v>
+      </c>
+      <c r="D40" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>192</v>
+      </c>
+      <c r="C41" s="1">
+        <v>260</v>
+      </c>
+      <c r="D41" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>193</v>
+      </c>
+      <c r="C42" s="1">
+        <v>261</v>
+      </c>
+      <c r="D42" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>194</v>
+      </c>
+      <c r="C43" s="1">
+        <v>262</v>
+      </c>
+      <c r="D43" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>195</v>
+      </c>
+      <c r="C44" s="1">
+        <v>263</v>
+      </c>
+      <c r="D44" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>196</v>
+      </c>
+      <c r="C45" s="1">
+        <v>264</v>
+      </c>
+      <c r="D45" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>197</v>
+      </c>
+      <c r="C46" s="1">
+        <v>265</v>
+      </c>
+      <c r="D46" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>198</v>
+      </c>
+      <c r="C47" s="1">
+        <v>266</v>
+      </c>
+      <c r="D47" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>199</v>
+      </c>
+      <c r="C48" s="1">
+        <v>267</v>
+      </c>
+      <c r="D48" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>200</v>
+      </c>
+      <c r="C49" s="1">
+        <v>268</v>
+      </c>
+      <c r="D49" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>201</v>
+      </c>
+      <c r="C50" s="1">
+        <v>269</v>
+      </c>
+      <c r="D50" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>202</v>
+      </c>
+      <c r="C51" s="1">
+        <v>270</v>
+      </c>
+      <c r="D51" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>203</v>
+      </c>
+      <c r="C52" s="1">
+        <v>271</v>
+      </c>
+      <c r="D52" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>204</v>
+      </c>
+      <c r="C53" s="1">
+        <v>272</v>
+      </c>
+      <c r="D53" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>205</v>
+      </c>
+      <c r="C54" s="1">
+        <v>273</v>
+      </c>
+      <c r="D54" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>206</v>
+      </c>
+      <c r="C55" s="1">
+        <v>274</v>
+      </c>
+      <c r="D55" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>207</v>
+      </c>
+      <c r="C56" s="1">
+        <v>275</v>
+      </c>
+      <c r="D56" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1">
+        <v>276</v>
+      </c>
+      <c r="D57" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>209</v>
+      </c>
+      <c r="C58" s="1">
+        <v>277</v>
+      </c>
+      <c r="D58" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>210</v>
+      </c>
+      <c r="C59" s="1">
+        <v>278</v>
+      </c>
+      <c r="D59" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>211</v>
+      </c>
+      <c r="C60" s="1">
+        <v>279</v>
+      </c>
+      <c r="D60" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>212</v>
+      </c>
+      <c r="C61" s="1">
+        <v>280</v>
+      </c>
+      <c r="D61" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>213</v>
+      </c>
+      <c r="C62" s="1">
+        <v>281</v>
+      </c>
+      <c r="D62" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>214</v>
+      </c>
+      <c r="C63" s="1">
+        <v>282</v>
+      </c>
+      <c r="D63" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>215</v>
+      </c>
+      <c r="C64" s="1">
+        <v>283</v>
+      </c>
+      <c r="D64" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>216</v>
+      </c>
+      <c r="C65" s="1">
+        <v>284</v>
+      </c>
+      <c r="D65" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>217</v>
+      </c>
+      <c r="C66" s="1">
+        <v>285</v>
+      </c>
+      <c r="D66" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>218</v>
+      </c>
+      <c r="C67" s="1">
+        <v>286</v>
+      </c>
+      <c r="D67" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>219</v>
+      </c>
+      <c r="C68" s="1">
+        <v>287</v>
+      </c>
+      <c r="D68" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>220</v>
+      </c>
+      <c r="C69" s="1">
+        <v>288</v>
+      </c>
+      <c r="D69" s="1">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Index_of_attribute.xlsx
+++ b/Index_of_attribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sphinx\Desktop\University of Rochester\UR\Course\CSC412 HCI\Assigment\project4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCI_FacialExpression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262EE919-2BDA-4E43-80D3-56AF446A88A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919FA70-75CF-48D6-A508-3C21A8231664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{3D0A4E04-DA2F-4797-A38C-E7D09F0F1E79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3D0A4E04-DA2F-4797-A38C-E7D09F0F1E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
   <si>
     <t>organ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>h-horrizontal v-vertical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>out-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frame</t>
   </si>
   <si>
@@ -137,24 +129,6 @@
     <t>gaze_1_z</t>
   </si>
   <si>
-    <t>pose_Tx</t>
-  </si>
-  <si>
-    <t>pose_Ty</t>
-  </si>
-  <si>
-    <t>pose_Tz</t>
-  </si>
-  <si>
-    <t>pose_Rx</t>
-  </si>
-  <si>
-    <t>pose_Ry</t>
-  </si>
-  <si>
-    <t>pose_Rz</t>
-  </si>
-  <si>
     <t>x_0</t>
   </si>
   <si>
@@ -561,23 +535,122 @@
   </si>
   <si>
     <t>y_67</t>
+  </si>
+  <si>
+    <t>out-h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48-54</t>
+  </si>
+  <si>
+    <t>out-v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51-57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brow-eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|X|+,Y1+,Y2+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|Y|+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|Y|-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right-v-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left-v-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|X|~/-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(49,117)-(51,119)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(48,116)-(52,120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(55,123)-(57,125)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(54,122)-(58,126)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(59,127)-(65,133)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(62,130)-(68,136)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(35,103)-(54,122)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(30,98)-(49,117)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -603,11 +676,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -922,1231 +996,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33422BEC-2B4F-4C7C-BE02-0FDF469E230A}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>147</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>148</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>149</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>150</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>151</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>152</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2157,71 +2183,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25B5995-2533-4E7C-81C2-695970C04B3C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" customWidth="1"/>
-    <col min="3" max="4" width="24.53125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="44.45" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2235,13 +2373,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85092853-71AF-4B6E-96E8-DB1B30C870B7}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2251,961 +2389,822 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>221</v>
-      </c>
-      <c r="D2" s="1">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>222</v>
-      </c>
-      <c r="D3" s="1">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>223</v>
-      </c>
-      <c r="D4" s="1">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>224</v>
-      </c>
-      <c r="D5" s="1">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>225</v>
-      </c>
-      <c r="D6" s="1">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>226</v>
-      </c>
-      <c r="D7" s="1">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
-        <v>227</v>
-      </c>
-      <c r="D8" s="1">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>228</v>
-      </c>
-      <c r="D9" s="1">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>229</v>
-      </c>
-      <c r="D10" s="1">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>230</v>
-      </c>
-      <c r="D11" s="1">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>231</v>
-      </c>
-      <c r="D12" s="1">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>232</v>
-      </c>
-      <c r="D13" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
-        <v>233</v>
-      </c>
-      <c r="D14" s="1">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>234</v>
-      </c>
-      <c r="D15" s="1">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>235</v>
-      </c>
-      <c r="D16" s="1">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
-        <v>236</v>
-      </c>
-      <c r="D17" s="1">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>237</v>
-      </c>
-      <c r="D18" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
-        <v>238</v>
-      </c>
-      <c r="D19" s="1">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>239</v>
-      </c>
-      <c r="D20" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>240</v>
-      </c>
-      <c r="D21" s="1">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
-        <v>241</v>
-      </c>
-      <c r="D22" s="1">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
-        <v>242</v>
-      </c>
-      <c r="D23" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
-        <v>243</v>
-      </c>
-      <c r="D24" s="1">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
-        <v>244</v>
-      </c>
-      <c r="D25" s="1">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>245</v>
-      </c>
-      <c r="D26" s="1">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>246</v>
-      </c>
-      <c r="D27" s="1">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
-        <v>247</v>
-      </c>
-      <c r="D28" s="1">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
-        <v>248</v>
-      </c>
-      <c r="D29" s="1">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
-        <v>249</v>
-      </c>
-      <c r="D30" s="1">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
-        <v>250</v>
-      </c>
-      <c r="D31" s="1">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
-        <v>251</v>
-      </c>
-      <c r="D32" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
-        <v>252</v>
-      </c>
-      <c r="D33" s="1">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>253</v>
-      </c>
-      <c r="D34" s="1">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
-        <v>254</v>
-      </c>
-      <c r="D35" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>255</v>
-      </c>
-      <c r="D36" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
-        <v>256</v>
-      </c>
-      <c r="D37" s="1">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
-        <v>257</v>
-      </c>
-      <c r="D38" s="1">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
-        <v>258</v>
-      </c>
-      <c r="D39" s="1">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
-        <v>259</v>
-      </c>
-      <c r="D40" s="1">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
-        <v>260</v>
-      </c>
-      <c r="D41" s="1">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1">
-        <v>261</v>
-      </c>
-      <c r="D42" s="1">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
-        <v>262</v>
-      </c>
-      <c r="D43" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1">
-        <v>263</v>
-      </c>
-      <c r="D44" s="1">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1">
-        <v>264</v>
-      </c>
-      <c r="D45" s="1">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1">
-        <v>265</v>
-      </c>
-      <c r="D46" s="1">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1">
-        <v>266</v>
-      </c>
-      <c r="D47" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1">
-        <v>267</v>
-      </c>
-      <c r="D48" s="1">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1">
-        <v>268</v>
-      </c>
-      <c r="D49" s="1">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="C50" s="1">
-        <v>269</v>
-      </c>
-      <c r="D50" s="1">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1">
-        <v>270</v>
-      </c>
-      <c r="D51" s="1">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1">
-        <v>271</v>
-      </c>
-      <c r="D52" s="1">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="C53" s="1">
-        <v>272</v>
-      </c>
-      <c r="D53" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="C54" s="1">
-        <v>273</v>
-      </c>
-      <c r="D54" s="1">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="C55" s="1">
-        <v>274</v>
-      </c>
-      <c r="D55" s="1">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="C56" s="1">
-        <v>275</v>
-      </c>
-      <c r="D56" s="1">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1">
-        <v>276</v>
-      </c>
-      <c r="D57" s="1">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="C58" s="1">
-        <v>277</v>
-      </c>
-      <c r="D58" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1">
-        <v>278</v>
-      </c>
-      <c r="D59" s="1">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>211</v>
+        <v>69</v>
       </c>
       <c r="C60" s="1">
-        <v>279</v>
-      </c>
-      <c r="D60" s="1">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1">
-        <v>280</v>
-      </c>
-      <c r="D61" s="1">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1">
-        <v>281</v>
-      </c>
-      <c r="D62" s="1">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1">
-        <v>282</v>
-      </c>
-      <c r="D63" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="C64" s="1">
-        <v>283</v>
-      </c>
-      <c r="D64" s="1">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="C65" s="1">
-        <v>284</v>
-      </c>
-      <c r="D65" s="1">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1">
-        <v>285</v>
-      </c>
-      <c r="D66" s="1">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1">
-        <v>286</v>
-      </c>
-      <c r="D67" s="1">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="C68" s="1">
-        <v>287</v>
-      </c>
-      <c r="D68" s="1">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="C69" s="1">
-        <v>288</v>
-      </c>
-      <c r="D69" s="1">
-        <v>356</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D69" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
